--- a/MidTerm/output_csv/TTVH6_LHVu.xlsx
+++ b/MidTerm/output_csv/TTVH6_LHVu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HELP ME\MidTerm\output_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A791C-F10A-45F6-98A6-EF5C77104BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08F3EE-F7AF-4890-84AC-1839E2D335E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="6651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8640" uniqueCount="6647">
   <si>
     <t>ID</t>
   </si>
@@ -19771,12 +19771,6 @@
     <t>[[701, 1235], [1244, 1235], [1244, 1306], [701, 1306]]</t>
   </si>
   <si>
-    <t>霜橫碧藋虹初霽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sương hoành bích 藋 hồng sơ tễ </t>
-  </si>
-  <si>
     <t>[[695, 1352], [1245, 1352], [1245, 1417], [695, 1417]]</t>
   </si>
   <si>
@@ -19963,16 +19957,10 @@
     <t xml:space="preserve">Cổ tiếp thong dong kiểm điếu hòm </t>
   </si>
   <si>
-    <t>TTVH6_809</t>
-  </si>
-  <si>
-    <t>[[1017, 797], [1028, 797], [1028, 811], [1017, 811]]</t>
-  </si>
-  <si>
-    <t>叠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điệp </t>
+    <t>霜橫碧虂虹初霽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sương hoành bích hoắc hồng sơ tễ </t>
   </si>
 </sst>
 </file>
@@ -20335,9 +20323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2161"/>
+  <dimension ref="A1:D2160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2132" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D2166" sqref="D2166"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -50287,10 +50277,10 @@
         <v>6582</v>
       </c>
       <c r="C2139" t="s">
-        <v>6583</v>
+        <v>6645</v>
       </c>
       <c r="D2139" t="s">
-        <v>6584</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="2140" spans="1:4" x14ac:dyDescent="0.3">
@@ -50298,13 +50288,13 @@
         <v>6566</v>
       </c>
       <c r="B2140" t="s">
+        <v>6583</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>6584</v>
+      </c>
+      <c r="D2140" t="s">
         <v>6585</v>
-      </c>
-      <c r="C2140" t="s">
-        <v>6586</v>
-      </c>
-      <c r="D2140" t="s">
-        <v>6587</v>
       </c>
     </row>
     <row r="2141" spans="1:4" x14ac:dyDescent="0.3">
@@ -50312,13 +50302,13 @@
         <v>6566</v>
       </c>
       <c r="B2141" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>6587</v>
+      </c>
+      <c r="D2141" t="s">
         <v>6588</v>
-      </c>
-      <c r="C2141" t="s">
-        <v>6589</v>
-      </c>
-      <c r="D2141" t="s">
-        <v>6590</v>
       </c>
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.3">
@@ -50326,21 +50316,21 @@
         <v>6566</v>
       </c>
       <c r="B2142" t="s">
+        <v>6589</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>6590</v>
+      </c>
+      <c r="D2142" t="s">
         <v>6591</v>
-      </c>
-      <c r="C2142" t="s">
-        <v>6592</v>
-      </c>
-      <c r="D2142" t="s">
-        <v>6593</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2143" t="s">
-        <v>6595</v>
+        <v>6593</v>
       </c>
       <c r="C2143" t="s">
         <v>6568</v>
@@ -50351,122 +50341,122 @@
     </row>
     <row r="2144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
+        <v>6592</v>
+      </c>
+      <c r="B2144" t="s">
         <v>6594</v>
       </c>
-      <c r="B2144" t="s">
+      <c r="C2144" t="s">
+        <v>6595</v>
+      </c>
+      <c r="D2144" t="s">
         <v>6596</v>
-      </c>
-      <c r="C2144" t="s">
-        <v>6597</v>
-      </c>
-      <c r="D2144" t="s">
-        <v>6598</v>
       </c>
     </row>
     <row r="2145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2145" t="s">
+        <v>6597</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>6598</v>
+      </c>
+      <c r="D2145" t="s">
         <v>6599</v>
-      </c>
-      <c r="C2145" t="s">
-        <v>6600</v>
-      </c>
-      <c r="D2145" t="s">
-        <v>6601</v>
       </c>
     </row>
     <row r="2146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2146" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2146" t="s">
+        <v>6600</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>6601</v>
+      </c>
+      <c r="D2146" t="s">
         <v>6602</v>
-      </c>
-      <c r="C2146" t="s">
-        <v>6603</v>
-      </c>
-      <c r="D2146" t="s">
-        <v>6604</v>
       </c>
     </row>
     <row r="2147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2147" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2147" t="s">
+        <v>6603</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>6604</v>
+      </c>
+      <c r="D2147" t="s">
         <v>6605</v>
-      </c>
-      <c r="C2147" t="s">
-        <v>6606</v>
-      </c>
-      <c r="D2147" t="s">
-        <v>6607</v>
       </c>
     </row>
     <row r="2148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2148" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2148" t="s">
+        <v>6606</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>6607</v>
+      </c>
+      <c r="D2148" t="s">
         <v>6608</v>
-      </c>
-      <c r="C2148" t="s">
-        <v>6609</v>
-      </c>
-      <c r="D2148" t="s">
-        <v>6610</v>
       </c>
     </row>
     <row r="2149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2149" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2149" t="s">
+        <v>6609</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>6610</v>
+      </c>
+      <c r="D2149" t="s">
         <v>6611</v>
-      </c>
-      <c r="C2149" t="s">
-        <v>6612</v>
-      </c>
-      <c r="D2149" t="s">
-        <v>6613</v>
       </c>
     </row>
     <row r="2150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2150" t="s">
+        <v>6612</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>6613</v>
+      </c>
+      <c r="D2150" t="s">
         <v>6614</v>
-      </c>
-      <c r="C2150" t="s">
-        <v>6615</v>
-      </c>
-      <c r="D2150" t="s">
-        <v>6616</v>
       </c>
     </row>
     <row r="2151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
-        <v>6594</v>
+        <v>6592</v>
       </c>
       <c r="B2151" t="s">
+        <v>6615</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>6616</v>
+      </c>
+      <c r="D2151" t="s">
         <v>6617</v>
-      </c>
-      <c r="C2151" t="s">
-        <v>6618</v>
-      </c>
-      <c r="D2151" t="s">
-        <v>6619</v>
       </c>
     </row>
     <row r="2152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
-        <v>6620</v>
+        <v>6618</v>
       </c>
       <c r="B2152" t="s">
-        <v>6621</v>
+        <v>6619</v>
       </c>
       <c r="C2152" t="s">
         <v>6568</v>
@@ -50477,128 +50467,114 @@
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
+        <v>6618</v>
+      </c>
+      <c r="B2153" t="s">
         <v>6620</v>
       </c>
-      <c r="B2153" t="s">
+      <c r="C2153" t="s">
+        <v>6621</v>
+      </c>
+      <c r="D2153" t="s">
         <v>6622</v>
-      </c>
-      <c r="C2153" t="s">
-        <v>6623</v>
-      </c>
-      <c r="D2153" t="s">
-        <v>6624</v>
       </c>
     </row>
     <row r="2154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
-        <v>6620</v>
+        <v>6618</v>
       </c>
       <c r="B2154" t="s">
+        <v>6623</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>6624</v>
+      </c>
+      <c r="D2154" t="s">
         <v>6625</v>
-      </c>
-      <c r="C2154" t="s">
-        <v>6626</v>
-      </c>
-      <c r="D2154" t="s">
-        <v>6627</v>
       </c>
     </row>
     <row r="2155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
-        <v>6620</v>
+        <v>6618</v>
       </c>
       <c r="B2155" t="s">
+        <v>6626</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>6627</v>
+      </c>
+      <c r="D2155" t="s">
         <v>6628</v>
-      </c>
-      <c r="C2155" t="s">
-        <v>6629</v>
-      </c>
-      <c r="D2155" t="s">
-        <v>6630</v>
       </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
-        <v>6620</v>
+        <v>6618</v>
       </c>
       <c r="B2156" t="s">
+        <v>6629</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>6630</v>
+      </c>
+      <c r="D2156" t="s">
         <v>6631</v>
-      </c>
-      <c r="C2156" t="s">
-        <v>6632</v>
-      </c>
-      <c r="D2156" t="s">
-        <v>6633</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
+        <v>6632</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>6633</v>
+      </c>
+      <c r="C2157" t="s">
         <v>6634</v>
       </c>
-      <c r="B2157" t="s">
+      <c r="D2157" t="s">
         <v>6635</v>
-      </c>
-      <c r="C2157" t="s">
-        <v>6636</v>
-      </c>
-      <c r="D2157" t="s">
-        <v>6637</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
-        <v>6634</v>
+        <v>6632</v>
       </c>
       <c r="B2158" t="s">
+        <v>6636</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>6637</v>
+      </c>
+      <c r="D2158" t="s">
         <v>6638</v>
-      </c>
-      <c r="C2158" t="s">
-        <v>6639</v>
-      </c>
-      <c r="D2158" t="s">
-        <v>6640</v>
       </c>
     </row>
     <row r="2159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2159" t="s">
-        <v>6634</v>
+        <v>6632</v>
       </c>
       <c r="B2159" t="s">
+        <v>6639</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>6640</v>
+      </c>
+      <c r="D2159" t="s">
         <v>6641</v>
-      </c>
-      <c r="C2159" t="s">
-        <v>6642</v>
-      </c>
-      <c r="D2159" t="s">
-        <v>6643</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2160" t="s">
-        <v>6634</v>
+        <v>6632</v>
       </c>
       <c r="B2160" t="s">
+        <v>6642</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>6643</v>
+      </c>
+      <c r="D2160" t="s">
         <v>6644</v>
-      </c>
-      <c r="C2160" t="s">
-        <v>6645</v>
-      </c>
-      <c r="D2160" t="s">
-        <v>6646</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2161" t="s">
-        <v>6647</v>
-      </c>
-      <c r="B2161" t="s">
-        <v>6648</v>
-      </c>
-      <c r="C2161" t="s">
-        <v>6649</v>
-      </c>
-      <c r="D2161" t="s">
-        <v>6650</v>
       </c>
     </row>
   </sheetData>
